--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H2">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>2027.746051046812</v>
+        <v>3545.952653148714</v>
       </c>
       <c r="R2">
-        <v>18249.71445942131</v>
+        <v>31913.57387833843</v>
       </c>
       <c r="S2">
-        <v>0.152206608785399</v>
+        <v>0.2225742246385846</v>
       </c>
       <c r="T2">
-        <v>0.152206608785399</v>
+        <v>0.2225742246385846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H3">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>2521.684580645066</v>
+        <v>3698.992963396267</v>
       </c>
       <c r="R3">
-        <v>22695.1612258056</v>
+        <v>33290.93667056641</v>
       </c>
       <c r="S3">
-        <v>0.1892826067881001</v>
+        <v>0.2321803394753269</v>
       </c>
       <c r="T3">
-        <v>0.1892826067881001</v>
+        <v>0.2321803394753269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H4">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>1889.409289002732</v>
+        <v>1733.441549100629</v>
       </c>
       <c r="R4">
-        <v>17004.68360102459</v>
+        <v>15600.97394190566</v>
       </c>
       <c r="S4">
-        <v>0.1418227792076211</v>
+        <v>0.1088055725743495</v>
       </c>
       <c r="T4">
-        <v>0.1418227792076211</v>
+        <v>0.1088055725743495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H5">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>305.962098061208</v>
+        <v>449.284070396544</v>
       </c>
       <c r="R5">
-        <v>2753.658882550872</v>
+        <v>4043.556633568896</v>
       </c>
       <c r="S5">
-        <v>0.02296611715195843</v>
+        <v>0.02820089927658269</v>
       </c>
       <c r="T5">
-        <v>0.02296611715195843</v>
+        <v>0.02820089927658268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H6">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>1625.225431836242</v>
+        <v>1281.268424628864</v>
       </c>
       <c r="R6">
-        <v>14627.02888652617</v>
+        <v>11531.41582165978</v>
       </c>
       <c r="S6">
-        <v>0.1219926190283426</v>
+        <v>0.08042333162921396</v>
       </c>
       <c r="T6">
-        <v>0.1219926190283426</v>
+        <v>0.08042333162921396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>484.2614461394366</v>
+        <v>577.306597229806</v>
       </c>
       <c r="R7">
-        <v>4358.353015254929</v>
+        <v>5195.759375068254</v>
       </c>
       <c r="S7">
-        <v>0.03634961707574061</v>
+        <v>0.03623668470109571</v>
       </c>
       <c r="T7">
-        <v>0.03634961707574062</v>
+        <v>0.03623668470109569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>602.2226605251109</v>
+        <v>602.2226605251111</v>
       </c>
       <c r="R8">
-        <v>5420.003944725998</v>
+        <v>5420.003944726</v>
       </c>
       <c r="S8">
-        <v>0.04520401795132462</v>
+        <v>0.03780062929129603</v>
       </c>
       <c r="T8">
-        <v>0.04520401795132462</v>
+        <v>0.03780062929129602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>451.2241925804272</v>
+        <v>282.2167524767788</v>
       </c>
       <c r="R9">
-        <v>4061.017733223845</v>
+        <v>2539.950772291009</v>
       </c>
       <c r="S9">
-        <v>0.0338697758129729</v>
+        <v>0.01771432983087381</v>
       </c>
       <c r="T9">
-        <v>0.0338697758129729</v>
+        <v>0.0177143298308738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>73.06913407351331</v>
+        <v>73.14667826708499</v>
       </c>
       <c r="R10">
-        <v>657.6222066616198</v>
+        <v>658.3201044037648</v>
       </c>
       <c r="S10">
-        <v>0.005484712988825028</v>
+        <v>0.004591309245409052</v>
       </c>
       <c r="T10">
-        <v>0.005484712988825029</v>
+        <v>0.00459130924540905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>388.1324377464855</v>
+        <v>208.599715425885</v>
       </c>
       <c r="R11">
-        <v>3493.191939718369</v>
+        <v>1877.397438832965</v>
       </c>
       <c r="S11">
-        <v>0.0291339845433331</v>
+        <v>0.01309349685747159</v>
       </c>
       <c r="T11">
-        <v>0.0291339845433331</v>
+        <v>0.01309349685747159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H12">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>10.317820870798</v>
+        <v>1.788112233605444</v>
       </c>
       <c r="R12">
-        <v>92.860387837182</v>
+        <v>16.093010102449</v>
       </c>
       <c r="S12">
-        <v>0.0007744759379453087</v>
+        <v>0.0001122371709075407</v>
       </c>
       <c r="T12">
-        <v>0.0007744759379453089</v>
+        <v>0.0001122371709075406</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H13">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>12.83113819026666</v>
+        <v>1.865285641644445</v>
       </c>
       <c r="R13">
-        <v>115.4802437124</v>
+        <v>16.7875707748</v>
       </c>
       <c r="S13">
-        <v>0.0009631304816444316</v>
+        <v>0.0001170812320491199</v>
       </c>
       <c r="T13">
-        <v>0.0009631304816444319</v>
+        <v>0.0001170812320491199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H14">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>9.613919152000333</v>
+        <v>0.8741199737775556</v>
       </c>
       <c r="R14">
-        <v>86.525272368003</v>
+        <v>7.867079763998</v>
       </c>
       <c r="S14">
-        <v>0.0007216396897962386</v>
+        <v>5.486722312320728E-05</v>
       </c>
       <c r="T14">
-        <v>0.0007216396897962388</v>
+        <v>5.486722312320726E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H15">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>1.556833075532</v>
+        <v>0.226559805283</v>
       </c>
       <c r="R15">
-        <v>14.011497679788</v>
+        <v>2.039038247547</v>
       </c>
       <c r="S15">
-        <v>0.0001168589541818312</v>
+        <v>1.422082524152011E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001168589541818312</v>
+        <v>1.42208252415201E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H16">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>8.269667136915333</v>
+        <v>0.646103309523</v>
       </c>
       <c r="R16">
-        <v>74.42700423223799</v>
+        <v>5.814929785707</v>
       </c>
       <c r="S16">
-        <v>0.000620737488328061</v>
+        <v>4.055495299008271E-05</v>
       </c>
       <c r="T16">
-        <v>0.0006207374883280613</v>
+        <v>4.05549529900827E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H17">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>696.9436686109186</v>
+        <v>1142.454808807573</v>
       </c>
       <c r="R17">
-        <v>6272.493017498268</v>
+        <v>10282.09327926816</v>
       </c>
       <c r="S17">
-        <v>0.05231396321001831</v>
+        <v>0.07171020544483951</v>
       </c>
       <c r="T17">
-        <v>0.05231396321001833</v>
+        <v>0.0717102054448395</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H18">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>866.7121318308442</v>
+        <v>1191.762189781334</v>
       </c>
       <c r="R18">
-        <v>7800.409186477598</v>
+        <v>10725.859708032</v>
       </c>
       <c r="S18">
-        <v>0.06505711812928146</v>
+        <v>0.07480515711585205</v>
       </c>
       <c r="T18">
-        <v>0.06505711812928149</v>
+        <v>0.07480515711585205</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H19">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>649.3968220060469</v>
+        <v>558.4898692311467</v>
       </c>
       <c r="R19">
-        <v>5844.571398054422</v>
+        <v>5026.408823080321</v>
       </c>
       <c r="S19">
-        <v>0.0487450033412857</v>
+        <v>0.03505558640278148</v>
       </c>
       <c r="T19">
-        <v>0.04874500334128572</v>
+        <v>0.03505558640278147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H20">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>105.1602822595013</v>
+        <v>144.75284837472</v>
       </c>
       <c r="R20">
-        <v>946.4425403355119</v>
+        <v>1302.77563537248</v>
       </c>
       <c r="S20">
-        <v>0.007893537720549867</v>
+        <v>0.009085923062909746</v>
       </c>
       <c r="T20">
-        <v>0.007893537720549871</v>
+        <v>0.009085923062909743</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H21">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>558.5958725940901</v>
+        <v>412.80620929632</v>
       </c>
       <c r="R21">
-        <v>5027.362853346812</v>
+        <v>3715.25588366688</v>
       </c>
       <c r="S21">
-        <v>0.04192930540053334</v>
+        <v>0.02591123766938473</v>
       </c>
       <c r="T21">
-        <v>0.04192930540053335</v>
+        <v>0.02591123766938473</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H22">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>8.234621440311999</v>
+        <v>7.765781985265111</v>
       </c>
       <c r="R22">
-        <v>74.111592962808</v>
+        <v>69.89203786738599</v>
       </c>
       <c r="S22">
-        <v>0.000618106889378177</v>
+        <v>0.0004874466957554664</v>
       </c>
       <c r="T22">
-        <v>0.0006181068893781772</v>
+        <v>0.0004874466957554663</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H23">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>10.24049234506666</v>
+        <v>8.100946551911113</v>
       </c>
       <c r="R23">
-        <v>92.16443110559997</v>
+        <v>72.90851896720001</v>
       </c>
       <c r="S23">
-        <v>0.0007686715066370268</v>
+        <v>0.0005084844818864569</v>
       </c>
       <c r="T23">
-        <v>0.0007686715066370271</v>
+        <v>0.0005084844818864569</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H24">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>7.672839620481334</v>
+        <v>3.796308205796889</v>
       </c>
       <c r="R24">
-        <v>69.05555658433201</v>
+        <v>34.166773852172</v>
       </c>
       <c r="S24">
-        <v>0.0005759384405087668</v>
+        <v>0.0002382886738896629</v>
       </c>
       <c r="T24">
-        <v>0.0005759384405087671</v>
+        <v>0.0002382886738896628</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H25">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>1.242503740208</v>
+        <v>0.9839505716620001</v>
       </c>
       <c r="R25">
-        <v>11.182533661872</v>
+        <v>8.855555144958</v>
       </c>
       <c r="S25">
-        <v>9.326477573589815E-05</v>
+        <v>6.17611279653984E-05</v>
       </c>
       <c r="T25">
-        <v>9.326477573589819E-05</v>
+        <v>6.176112796539839E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H26">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>6.599996177741333</v>
+        <v>2.806030487022</v>
       </c>
       <c r="R26">
-        <v>59.39996559967199</v>
+        <v>25.254274383198</v>
       </c>
       <c r="S26">
-        <v>0.000495408700557944</v>
+        <v>0.0001761304002202532</v>
       </c>
       <c r="T26">
-        <v>0.0004954087005579441</v>
+        <v>0.0001761304002202531</v>
       </c>
     </row>
   </sheetData>
